--- a/원명식물좌표.xlsx
+++ b/원명식물좌표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3. 2022수업(6과학, 5음악)\과학4단원\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20450BEB-5E5D-4DEA-A34B-45C6A66A33CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052FDCFC-21F5-4CB0-837D-47559C35AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{47BED36A-4FE1-4AD6-8C31-4F9D0F75D830}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>장미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,14 @@
   </si>
   <si>
     <t>주목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="182" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,563 +536,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26E046-55A7-4F0F-A94B-AFAF853BCF76}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="4" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
         <v>37.302275559000002</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>127.058803119999</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
         <v>37.302275559000002</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>127.058803119999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
         <v>37.302275559000002</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>127.058803119999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>37.302275559000002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>127.058803119999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
         <v>37.3022017589999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>127.05930712</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
         <v>37.3022017589999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>127.05930712</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
         <v>37.3022017589999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>127.05930712</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
         <v>37.3022017589999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>127.05930712</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
         <v>37.3022017589999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>127.05930712</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
         <v>37.302271598999901</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>127.10310799</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
         <v>37.302271598999901</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>127.10310799</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>37.302271598999901</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>127.10310799</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
         <v>37.302487239999898</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>127.101959589999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
         <v>37.302487239999898</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>127.101959589999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
         <v>37.302487239999898</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>127.101959589999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
         <v>37.302487239999898</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>127.101959589999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
         <v>37.302233080000001</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>127.101959589999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
         <v>37.302233080000001</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>127.101959589999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>37.3008618389999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>127.117749189999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>37.300889918999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>127.116553999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>37.300736918999903</v>
+      </c>
+      <c r="D27" s="1">
+        <v>127.117796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>37.300736918999903</v>
+      </c>
+      <c r="D28" s="1">
+        <v>127.117796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>37.305299198999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>127.158448879999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>37.305299198999997</v>
+      </c>
+      <c r="D30" s="1">
+        <v>127.158448879999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>37.305299198999997</v>
+      </c>
+      <c r="D31" s="1">
+        <v>127.158448879999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>37.295987867899903</v>
+      </c>
+      <c r="D32" s="1">
+        <v>127.107334399999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>37.295987867899903</v>
+      </c>
+      <c r="D33" s="1">
+        <v>127.107334399999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>37.295987867899903</v>
+      </c>
+      <c r="D34" s="1">
+        <v>127.107334399999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37.302486000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>127.102503189999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>37.302486000000002</v>
+      </c>
+      <c r="D36" s="1">
+        <v>127.102503189999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>37.301704239000003</v>
+      </c>
+      <c r="D37" s="1">
+        <v>127.15850828000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37.301704239000003</v>
+      </c>
+      <c r="D38" s="1">
+        <v>127.15850828000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>37.301926719999798</v>
+      </c>
+      <c r="D39" s="1">
+        <v>127.156716919999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <v>37.301926719999798</v>
+      </c>
+      <c r="D40" s="1">
+        <v>127.156716919999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>37.301926719999798</v>
+      </c>
+      <c r="D41" s="1">
+        <v>127.156716919999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>37.303091680000001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>127.158822724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>37.303091680000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>127.158822724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>37.303091680000001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>127.158822724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>37.30380736</v>
+      </c>
+      <c r="D45" s="1">
+        <v>127.159748839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>37.303797638999903</v>
+      </c>
+      <c r="D46" s="1">
+        <v>127.159930279999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>37.295964683899903</v>
+      </c>
+      <c r="D47" s="1">
+        <v>127.138017189999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>37.301433879999898</v>
+      </c>
+      <c r="D48" s="1">
+        <v>127.11412399999899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <v>37.3008618389999</v>
-      </c>
-      <c r="C23" s="1">
-        <v>127.117749189999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1">
-        <v>37.300889918999999</v>
-      </c>
-      <c r="C26" s="1">
-        <v>127.116553999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1">
-        <v>37.300736918999903</v>
-      </c>
-      <c r="C27" s="1">
-        <v>127.117796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1">
-        <v>37.300736918999903</v>
-      </c>
-      <c r="C28" s="1">
-        <v>127.117796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1">
-        <v>37.305299198999997</v>
-      </c>
-      <c r="C29" s="1">
-        <v>127.158448879999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1">
-        <v>37.305299198999997</v>
-      </c>
-      <c r="C30" s="1">
-        <v>127.158448879999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1">
-        <v>37.305299198999997</v>
-      </c>
-      <c r="C31" s="1">
-        <v>127.158448879999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1">
-        <v>37.295987867899903</v>
-      </c>
-      <c r="C32" s="1">
-        <v>127.107334399999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1">
-        <v>37.295987867899903</v>
-      </c>
-      <c r="C33" s="1">
-        <v>127.107334399999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1">
-        <v>37.295987867899903</v>
-      </c>
-      <c r="C34" s="1">
-        <v>127.107334399999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="1">
-        <v>37.302486000000002</v>
-      </c>
-      <c r="C35" s="1">
-        <v>127.102503189999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1">
-        <v>37.302486000000002</v>
-      </c>
-      <c r="C36" s="1">
-        <v>127.102503189999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="1">
-        <v>37.301704239000003</v>
-      </c>
-      <c r="C37" s="1">
-        <v>127.15850828000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37.301704239000003</v>
-      </c>
-      <c r="C38" s="1">
-        <v>127.15850828000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1">
-        <v>37.301926719999798</v>
-      </c>
-      <c r="C39" s="1">
-        <v>127.156716919999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1">
-        <v>37.301926719999798</v>
-      </c>
-      <c r="C40" s="1">
-        <v>127.156716919999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1">
-        <v>37.301926719999798</v>
-      </c>
-      <c r="C41" s="1">
-        <v>127.156716919999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>37.303091680000001</v>
-      </c>
-      <c r="C42" s="1">
-        <v>127.158822724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1">
-        <v>37.303091680000001</v>
-      </c>
-      <c r="C43" s="1">
-        <v>127.158822724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1">
-        <v>37.303091680000001</v>
-      </c>
-      <c r="C44" s="1">
-        <v>127.158822724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1">
-        <v>37.30380736</v>
-      </c>
-      <c r="C45" s="1">
-        <v>127.159748839</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="1">
-        <v>37.303797638999903</v>
-      </c>
-      <c r="C46" s="1">
-        <v>127.159930279999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1">
-        <v>37.295964683899903</v>
-      </c>
-      <c r="C47" s="1">
-        <v>127.138017189999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
         <v>37.301433879999898</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D49" s="1">
         <v>127.11412399999899</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
         <v>37.301433879999898</v>
       </c>
-      <c r="C49" s="1">
-        <v>127.11412399999899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="1">
-        <v>37.301433879999898</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>127.11412399999899</v>
       </c>
     </row>
